--- a/book.xlsx
+++ b/book.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Iterations</t>
   </si>
@@ -51,13 +50,7 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>Initial Score</t>
-  </si>
-  <si>
     <t>Frozen source head</t>
-  </si>
-  <si>
-    <t>Frozen body + source head (2500 iterations)</t>
   </si>
   <si>
     <t>Frozen body &amp; source head</t>
@@ -65,11 +58,29 @@
   <si>
     <t>Nothing frozen</t>
   </si>
+  <si>
+    <t>Initial Source</t>
+  </si>
+  <si>
+    <t>Initial Target:</t>
+  </si>
+  <si>
+    <t>Retrain all</t>
+  </si>
+  <si>
+    <t>50 steps</t>
+  </si>
+  <si>
+    <t>2500 steps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,11 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,9 +692,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$14:$B$17</c:f>
+              <c:f>Sheet1!$B$14:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Nothing frozen</c:v>
                 </c:pt>
@@ -690,19 +703,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Frozen body &amp; source head</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Frozen body + source head (2500 iterations)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:f>Sheet1!$C$14:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-0.38869019600000004</c:v>
                 </c:pt>
@@ -711,9 +721,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.27041568600000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.38502745100000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,9 +759,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$14:$B$17</c:f>
+              <c:f>Sheet1!$B$14:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Nothing frozen</c:v>
                 </c:pt>
@@ -763,30 +770,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Frozen body &amp; source head</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Frozen body + source head (2500 iterations)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$17</c:f>
+              <c:f>Sheet1!$D$14:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.12792549099999995</c:v>
+                  <c:v>-0.13207196700000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12629804</c:v>
+                  <c:v>-0.13369941799999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20368235300000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16370980400000001</c:v>
+                  <c:v>-0.463679811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +937,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2004,6 +2005,378 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$14:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Nothing frozen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frozen source head</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frozen body &amp; source head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.38876078400000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.38876078400000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.38502745100000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CC0-4BEF-A676-66D86F6146B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$14:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Nothing frozen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frozen source head</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frozen body &amp; source head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3241758000000066E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7143719000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6287653999999945E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CC0-4BEF-A676-66D86F6146B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="662236280"/>
+        <c:axId val="662235624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="662236280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662235624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662235624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662236280"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2164,6 +2537,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4196,6 +4609,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4227,7 +5143,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4257,13 +5173,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>607079</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4293,13 +5209,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>189185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4329,13 +5245,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>1315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4358,6 +5274,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>631172</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E31610-DEA8-49B7-A10F-02B37966C35A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4663,22 +5617,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O1">
         <v>0.38876078400000003</v>
@@ -4688,6 +5642,12 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>0.64875824199999998</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4744,7 +5704,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -4766,7 +5728,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>0.68200000000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4791,7 +5755,9 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -4813,7 +5779,9 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>0.685901961</v>
+      </c>
       <c r="M7">
         <f>0.3517-O1</f>
         <v>-3.7060784000000013E-2</v>
@@ -4894,6 +5862,12 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -4902,61 +5876,126 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
         <f>F4-$O$1</f>
         <v>-0.38869019600000004</v>
       </c>
-      <c r="D14">
-        <f>F5-$O$1</f>
-        <v>0.12792549099999995</v>
+      <c r="D14" s="4">
+        <f>F5-$O$2</f>
+        <v>-0.13207196700000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <f>K4-$O$1</f>
+        <v>-0.38876078400000003</v>
+      </c>
+      <c r="H14" s="5">
+        <f>K5-$O$2</f>
+        <v>3.3241758000000066E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
         <f>F6-$O$1</f>
         <v>-0.38863529400000002</v>
       </c>
-      <c r="D15">
-        <f>F7-$O$1</f>
-        <v>0.12629804</v>
+      <c r="D15" s="4">
+        <f>F7-$O$2</f>
+        <v>-0.13369941799999996</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <f>K6-$O$1</f>
+        <v>-0.38876078400000003</v>
+      </c>
+      <c r="H15" s="5">
+        <f>K7-$O$2</f>
+        <v>3.7143719000000019E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
         <f>F8-$O$1</f>
         <v>-0.27041568600000004</v>
       </c>
-      <c r="D16">
-        <f>F9-$O$1</f>
-        <v>-0.20368235300000004</v>
+      <c r="D16" s="4">
+        <f>F9-$O$2</f>
+        <v>-0.463679811</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5">
+        <f>K8-$O$1</f>
+        <v>-0.38502745100000002</v>
+      </c>
+      <c r="H16" s="5">
+        <f>K9-$O$2</f>
+        <v>-9.6287653999999945E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <f>K8-O1</f>
-        <v>-0.38502745100000002</v>
-      </c>
-      <c r="D17">
-        <f>K9-O1</f>
-        <v>0.16370980400000001</v>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.28949999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>C19-O1</f>
+        <v>-3.1460784000000019E-2</v>
+      </c>
+      <c r="D20">
+        <f>D19-O2</f>
+        <v>-0.35925824200000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <f>K5-O2</f>
+        <v>3.3241758000000066E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>